--- a/StdCostCalculate/Docments/数据字典.xlsx
+++ b/StdCostCalculate/Docments/数据字典.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="数据字典" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,12 +23,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="221">
   <si>
     <t>区分</t>
   </si>
   <si>
     <t>来源</t>
+  </si>
+  <si>
+    <t>数据提供者</t>
+  </si>
+  <si>
+    <t>DEPT</t>
+  </si>
+  <si>
+    <t>维护者</t>
   </si>
   <si>
     <t>系数</t>
@@ -38,6 +47,12 @@
   </si>
   <si>
     <t>k3.公共资料.销售报价费用核算系数</t>
+  </si>
+  <si>
+    <t>徐君芳</t>
+  </si>
+  <si>
+    <t>财务</t>
   </si>
   <si>
     <t>保险系数</t>
@@ -86,6 +101,12 @@
   </si>
   <si>
     <t>清洗费用</t>
+  </si>
+  <si>
+    <t>张兆钱</t>
+  </si>
+  <si>
+    <t>技术</t>
   </si>
   <si>
     <t>材料成本</t>
@@ -482,6 +503,12 @@
     <t>输入*</t>
   </si>
   <si>
+    <t>侯立涛</t>
+  </si>
+  <si>
+    <t>设备</t>
+  </si>
+  <si>
     <t>输入</t>
   </si>
   <si>
@@ -492,6 +519,12 @@
   </si>
   <si>
     <t>工装模具代码</t>
+  </si>
+  <si>
+    <t>冯亮</t>
+  </si>
+  <si>
+    <t>制造技术</t>
   </si>
   <si>
     <t>工装模具名称</t>
@@ -507,6 +540,9 @@
   </si>
   <si>
     <t>辅料代码</t>
+  </si>
+  <si>
+    <t>？</t>
   </si>
   <si>
     <t>单价</t>
@@ -837,6 +873,7 @@
         <sz val="10"/>
         <rFont val="SimSun"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>完整性验证</t>
     </r>
@@ -924,7 +961,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -952,6 +989,11 @@
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="SimSun"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -992,6 +1034,7 @@
       <sz val="10"/>
       <name val="SimSun"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="13"/>
@@ -1008,7 +1051,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1019,6 +1062,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF99FFFF"/>
         <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
@@ -1109,7 +1158,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1124,6 +1173,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1146,7 +1199,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1157,6 +1210,10 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -1182,11 +1239,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1198,7 +1255,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1206,7 +1263,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1264,7 +1321,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -1288,24 +1345,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:IW65536"/>
+  <dimension ref="A1:IW84"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B91" activeCellId="0" sqref="B91"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="64.6632653061225"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="89.2295918367347"/>
-    <col collapsed="false" hidden="false" max="8" min="4" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="27.4030612244898"/>
-    <col collapsed="false" hidden="false" max="257" min="10" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="63.984693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="88.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="27.1326530612245"/>
+    <col collapsed="false" hidden="false" max="257" min="10" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1313,9 +1372,15 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="G1" s="0"/>
       <c r="H1" s="0"/>
       <c r="I1" s="0"/>
@@ -1568,19 +1633,25 @@
       <c r="IV1" s="0"/>
       <c r="IW1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="G2" s="0"/>
       <c r="H2" s="0"/>
       <c r="I2" s="0"/>
@@ -1833,17 +1904,23 @@
       <c r="IV2" s="0"/>
       <c r="IW2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5"/>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="0"/>
-      <c r="E3" s="0"/>
-      <c r="F3" s="0"/>
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="G3" s="0"/>
       <c r="H3" s="0"/>
       <c r="I3" s="0"/>
@@ -2096,17 +2173,23 @@
       <c r="IV3" s="0"/>
       <c r="IW3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4"/>
+    <row r="4" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5"/>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="0"/>
-      <c r="E4" s="0"/>
-      <c r="F4" s="0"/>
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="G4" s="0"/>
       <c r="H4" s="0"/>
       <c r="I4" s="0"/>
@@ -2359,17 +2442,23 @@
       <c r="IV4" s="0"/>
       <c r="IW4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="0"/>
-      <c r="E5" s="0"/>
-      <c r="F5" s="0"/>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="G5" s="0"/>
       <c r="H5" s="0"/>
       <c r="I5" s="0"/>
@@ -2622,17 +2711,23 @@
       <c r="IV5" s="0"/>
       <c r="IW5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="0"/>
-      <c r="E6" s="0"/>
-      <c r="F6" s="0"/>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="G6" s="0"/>
       <c r="H6" s="0"/>
       <c r="I6" s="0"/>
@@ -2885,17 +2980,23 @@
       <c r="IV6" s="0"/>
       <c r="IW6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
+      <c r="F7" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="G7" s="0"/>
       <c r="H7" s="0"/>
       <c r="I7" s="0"/>
@@ -3148,17 +3249,23 @@
       <c r="IV7" s="0"/>
       <c r="IW7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="G8" s="0"/>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
@@ -3411,17 +3518,23 @@
       <c r="IV8" s="0"/>
       <c r="IW8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="0"/>
-      <c r="E9" s="0"/>
-      <c r="F9" s="0"/>
+        <v>7</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="G9" s="0"/>
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
@@ -3674,17 +3787,23 @@
       <c r="IV9" s="0"/>
       <c r="IW9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="0"/>
-      <c r="E10" s="0"/>
-      <c r="F10" s="0"/>
+        <v>18</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="G10" s="0"/>
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
@@ -3937,17 +4056,23 @@
       <c r="IV10" s="0"/>
       <c r="IW10" s="0"/>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
-      <c r="F11" s="0"/>
+        <v>18</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="G11" s="0"/>
       <c r="H11" s="0"/>
       <c r="I11" s="0"/>
@@ -4200,17 +4325,23 @@
       <c r="IV11" s="0"/>
       <c r="IW11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="0"/>
-      <c r="E12" s="0"/>
-      <c r="F12" s="0"/>
+        <v>7</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="G12" s="0"/>
       <c r="H12" s="0"/>
       <c r="I12" s="0"/>
@@ -4463,17 +4594,23 @@
       <c r="IV12" s="0"/>
       <c r="IW12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="0"/>
-      <c r="E13" s="0"/>
-      <c r="F13" s="0"/>
+        <v>7</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="G13" s="0"/>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
@@ -4726,17 +4863,23 @@
       <c r="IV13" s="0"/>
       <c r="IW13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
+        <v>7</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="G14" s="0"/>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
@@ -4989,17 +5132,23 @@
       <c r="IV14" s="0"/>
       <c r="IW14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
+        <v>7</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="G15" s="0"/>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
@@ -5252,17 +5401,23 @@
       <c r="IV15" s="0"/>
       <c r="IW15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
+        <v>7</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="G16" s="0"/>
       <c r="H16" s="0"/>
       <c r="I16" s="0"/>
@@ -5515,13 +5670,10 @@
       <c r="IV16" s="0"/>
       <c r="IW16" s="0"/>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
-      <c r="F17" s="0"/>
       <c r="G17" s="0"/>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
@@ -5774,17 +5926,23 @@
       <c r="IV17" s="0"/>
       <c r="IW17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="0"/>
-      <c r="E18" s="0"/>
-      <c r="F18" s="0"/>
+        <v>18</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="G18" s="0"/>
       <c r="H18" s="0"/>
       <c r="I18" s="0"/>
@@ -6037,19 +6195,25 @@
       <c r="IV18" s="0"/>
       <c r="IW18" s="0"/>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>21</v>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="0"/>
-      <c r="E19" s="0"/>
-      <c r="F19" s="0"/>
+        <v>30</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="G19" s="0"/>
       <c r="H19" s="0"/>
       <c r="I19" s="0"/>
@@ -6302,17 +6466,23 @@
       <c r="IV19" s="0"/>
       <c r="IW19" s="0"/>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="0"/>
-      <c r="E20" s="0"/>
-      <c r="F20" s="0"/>
+        <v>32</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="G20" s="0"/>
       <c r="H20" s="0"/>
       <c r="I20" s="0"/>
@@ -6565,17 +6735,23 @@
       <c r="IV20" s="0"/>
       <c r="IW20" s="0"/>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="E21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="0"/>
-      <c r="E21" s="0"/>
-      <c r="F21" s="0"/>
+      <c r="F21" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="G21" s="0"/>
       <c r="H21" s="0"/>
       <c r="I21" s="0"/>
@@ -6828,17 +7004,14 @@
       <c r="IV21" s="0"/>
       <c r="IW21" s="0"/>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="0"/>
-      <c r="E22" s="0"/>
-      <c r="F22" s="0"/>
+        <v>36</v>
+      </c>
       <c r="G22" s="0"/>
       <c r="H22" s="0"/>
       <c r="I22" s="0"/>
@@ -7092,16 +7265,13 @@
       <c r="IW22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="58.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4"/>
+      <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="0"/>
-      <c r="E23" s="0"/>
-      <c r="F23" s="0"/>
+        <v>37</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="G23" s="0"/>
       <c r="H23" s="0"/>
       <c r="I23" s="0"/>
@@ -7354,17 +7524,14 @@
       <c r="IV23" s="0"/>
       <c r="IW23" s="0"/>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="0"/>
-      <c r="E24" s="0"/>
-      <c r="F24" s="0"/>
+        <v>40</v>
+      </c>
       <c r="G24" s="0"/>
       <c r="H24" s="0"/>
       <c r="I24" s="0"/>
@@ -7617,19 +7784,16 @@
       <c r="IV24" s="0"/>
       <c r="IW24" s="0"/>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
-        <v>34</v>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="0"/>
-      <c r="E25" s="0"/>
-      <c r="F25" s="0"/>
+        <v>43</v>
+      </c>
       <c r="G25" s="0"/>
       <c r="H25" s="0"/>
       <c r="I25" s="0"/>
@@ -7882,17 +8046,14 @@
       <c r="IV25" s="0"/>
       <c r="IW25" s="0"/>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6"/>
+    <row r="26" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7"/>
       <c r="B26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="0"/>
-      <c r="E26" s="0"/>
-      <c r="F26" s="0"/>
+        <v>35</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="G26" s="0"/>
       <c r="H26" s="0"/>
       <c r="I26" s="0"/>
@@ -8146,16 +8307,13 @@
       <c r="IW26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6"/>
+      <c r="A27" s="7"/>
       <c r="B27" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="0"/>
-      <c r="E27" s="0"/>
-      <c r="F27" s="0"/>
+        <v>46</v>
+      </c>
       <c r="G27" s="0"/>
       <c r="H27" s="0"/>
       <c r="I27" s="0"/>
@@ -8409,16 +8567,13 @@
       <c r="IW27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6"/>
+      <c r="A28" s="7"/>
       <c r="B28" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="0"/>
-      <c r="E28" s="0"/>
-      <c r="F28" s="0"/>
+        <v>48</v>
+      </c>
       <c r="G28" s="0"/>
       <c r="H28" s="0"/>
       <c r="I28" s="0"/>
@@ -8671,17 +8826,14 @@
       <c r="IV28" s="0"/>
       <c r="IW28" s="0"/>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6"/>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="7"/>
       <c r="B29" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="0"/>
-      <c r="E29" s="0"/>
-      <c r="F29" s="0"/>
+        <v>49</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="G29" s="0"/>
       <c r="H29" s="0"/>
       <c r="I29" s="0"/>
@@ -8934,17 +9086,14 @@
       <c r="IV29" s="0"/>
       <c r="IW29" s="0"/>
     </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6"/>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="7"/>
       <c r="B30" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="0"/>
-      <c r="E30" s="0"/>
-      <c r="F30" s="0"/>
+        <v>48</v>
+      </c>
       <c r="G30" s="0"/>
       <c r="H30" s="0"/>
       <c r="I30" s="0"/>
@@ -9197,17 +9346,14 @@
       <c r="IV30" s="0"/>
       <c r="IW30" s="0"/>
     </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7"/>
       <c r="B31" s="3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="0"/>
-      <c r="E31" s="0"/>
-      <c r="F31" s="0"/>
+        <v>52</v>
+      </c>
       <c r="G31" s="0"/>
       <c r="H31" s="0"/>
       <c r="I31" s="0"/>
@@ -9460,17 +9606,14 @@
       <c r="IV31" s="0"/>
       <c r="IW31" s="0"/>
     </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6"/>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="7"/>
       <c r="B32" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="0"/>
-      <c r="E32" s="0"/>
-      <c r="F32" s="0"/>
+        <v>54</v>
+      </c>
       <c r="G32" s="0"/>
       <c r="H32" s="0"/>
       <c r="I32" s="0"/>
@@ -9723,19 +9866,16 @@
       <c r="IV32" s="0"/>
       <c r="IW32" s="0"/>
     </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="0"/>
-      <c r="E33" s="0"/>
-      <c r="F33" s="0"/>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="G33" s="0"/>
       <c r="H33" s="0"/>
       <c r="I33" s="0"/>
@@ -9988,17 +10128,14 @@
       <c r="IV33" s="0"/>
       <c r="IW33" s="0"/>
     </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6"/>
+    <row r="34" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="7"/>
       <c r="B34" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="0"/>
-      <c r="E34" s="0"/>
-      <c r="F34" s="0"/>
+        <v>54</v>
+      </c>
       <c r="G34" s="0"/>
       <c r="H34" s="0"/>
       <c r="I34" s="0"/>
@@ -10251,17 +10388,14 @@
       <c r="IV34" s="0"/>
       <c r="IW34" s="0"/>
     </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6"/>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="7"/>
       <c r="B35" s="3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="0"/>
-      <c r="E35" s="0"/>
-      <c r="F35" s="0"/>
+        <v>59</v>
+      </c>
       <c r="G35" s="0"/>
       <c r="H35" s="0"/>
       <c r="I35" s="0"/>
@@ -10514,17 +10648,14 @@
       <c r="IV35" s="0"/>
       <c r="IW35" s="0"/>
     </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6"/>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="7"/>
       <c r="B36" s="3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="0"/>
-      <c r="E36" s="0"/>
-      <c r="F36" s="0"/>
+        <v>59</v>
+      </c>
       <c r="G36" s="0"/>
       <c r="H36" s="0"/>
       <c r="I36" s="0"/>
@@ -10778,16 +10909,13 @@
       <c r="IW36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="140.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6"/>
+      <c r="A37" s="7"/>
       <c r="B37" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="0"/>
-      <c r="E37" s="0"/>
-      <c r="F37" s="0"/>
+        <v>61</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="G37" s="0"/>
       <c r="H37" s="0"/>
       <c r="I37" s="0"/>
@@ -11040,17 +11168,14 @@
       <c r="IV37" s="0"/>
       <c r="IW37" s="0"/>
     </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6"/>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="7"/>
       <c r="B38" s="3" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" s="0"/>
-      <c r="E38" s="0"/>
-      <c r="F38" s="0"/>
+        <v>59</v>
+      </c>
       <c r="G38" s="0"/>
       <c r="H38" s="0"/>
       <c r="I38" s="0"/>
@@ -11303,17 +11428,14 @@
       <c r="IV38" s="0"/>
       <c r="IW38" s="0"/>
     </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6"/>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="7"/>
       <c r="B39" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" s="0"/>
-      <c r="E39" s="0"/>
-      <c r="F39" s="0"/>
+        <v>65</v>
+      </c>
       <c r="G39" s="0"/>
       <c r="H39" s="0"/>
       <c r="I39" s="0"/>
@@ -11566,17 +11688,14 @@
       <c r="IV39" s="0"/>
       <c r="IW39" s="0"/>
     </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6"/>
+    <row r="40" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="7"/>
       <c r="B40" s="3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" s="0"/>
-      <c r="E40" s="0"/>
-      <c r="F40" s="0"/>
+        <v>67</v>
+      </c>
       <c r="G40" s="0"/>
       <c r="H40" s="0"/>
       <c r="I40" s="0"/>
@@ -11829,17 +11948,14 @@
       <c r="IV40" s="0"/>
       <c r="IW40" s="0"/>
     </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6"/>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="7"/>
       <c r="B41" s="3" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" s="0"/>
-      <c r="E41" s="0"/>
-      <c r="F41" s="0"/>
+        <v>59</v>
+      </c>
       <c r="G41" s="0"/>
       <c r="H41" s="0"/>
       <c r="I41" s="0"/>
@@ -12092,17 +12208,14 @@
       <c r="IV41" s="0"/>
       <c r="IW41" s="0"/>
     </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6"/>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="7"/>
       <c r="B42" s="3" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D42" s="0"/>
-      <c r="E42" s="0"/>
-      <c r="F42" s="0"/>
+        <v>70</v>
+      </c>
       <c r="G42" s="0"/>
       <c r="H42" s="0"/>
       <c r="I42" s="0"/>
@@ -12355,17 +12468,14 @@
       <c r="IV42" s="0"/>
       <c r="IW42" s="0"/>
     </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6"/>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="7"/>
       <c r="B43" s="3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" s="0"/>
-      <c r="E43" s="0"/>
-      <c r="F43" s="0"/>
+        <v>59</v>
+      </c>
       <c r="G43" s="0"/>
       <c r="H43" s="0"/>
       <c r="I43" s="0"/>
@@ -12618,17 +12728,14 @@
       <c r="IV43" s="0"/>
       <c r="IW43" s="0"/>
     </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6"/>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="7"/>
       <c r="B44" s="3" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44" s="0"/>
-      <c r="E44" s="0"/>
-      <c r="F44" s="0"/>
+        <v>59</v>
+      </c>
       <c r="G44" s="0"/>
       <c r="H44" s="0"/>
       <c r="I44" s="0"/>
@@ -12882,16 +12989,13 @@
       <c r="IW44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6"/>
-      <c r="B45" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D45" s="0"/>
-      <c r="E45" s="0"/>
-      <c r="F45" s="0"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="G45" s="0"/>
       <c r="H45" s="0"/>
       <c r="I45" s="0"/>
@@ -13145,16 +13249,13 @@
       <c r="IW45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6"/>
-      <c r="B46" s="8" t="s">
-        <v>68</v>
+      <c r="A46" s="7"/>
+      <c r="B46" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D46" s="0"/>
-      <c r="E46" s="0"/>
-      <c r="F46" s="0"/>
+        <v>76</v>
+      </c>
       <c r="G46" s="0"/>
       <c r="H46" s="0"/>
       <c r="I46" s="0"/>
@@ -13407,17 +13508,14 @@
       <c r="IV46" s="0"/>
       <c r="IW46" s="0"/>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6"/>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="7"/>
       <c r="B47" s="3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D47" s="0"/>
-      <c r="E47" s="0"/>
-      <c r="F47" s="0"/>
+        <v>59</v>
+      </c>
       <c r="G47" s="0"/>
       <c r="H47" s="0"/>
       <c r="I47" s="0"/>
@@ -13671,16 +13769,13 @@
       <c r="IW47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="97.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6"/>
+      <c r="A48" s="7"/>
       <c r="B48" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D48" s="0"/>
-      <c r="E48" s="0"/>
-      <c r="F48" s="0"/>
+        <v>78</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="G48" s="0"/>
       <c r="H48" s="0"/>
       <c r="I48" s="0"/>
@@ -13934,16 +14029,13 @@
       <c r="IW48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6"/>
+      <c r="A49" s="7"/>
       <c r="B49" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D49" s="0"/>
-      <c r="E49" s="0"/>
-      <c r="F49" s="0"/>
+        <v>80</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="G49" s="0"/>
       <c r="H49" s="0"/>
       <c r="I49" s="0"/>
@@ -14196,17 +14288,14 @@
       <c r="IV49" s="0"/>
       <c r="IW49" s="0"/>
     </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6"/>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="7"/>
       <c r="B50" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D50" s="0"/>
-      <c r="E50" s="0"/>
-      <c r="F50" s="0"/>
+        <v>83</v>
+      </c>
       <c r="G50" s="0"/>
       <c r="H50" s="0"/>
       <c r="I50" s="0"/>
@@ -14459,17 +14548,14 @@
       <c r="IV50" s="0"/>
       <c r="IW50" s="0"/>
     </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6"/>
+    <row r="51" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="7"/>
       <c r="B51" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D51" s="0"/>
-      <c r="E51" s="0"/>
-      <c r="F51" s="0"/>
+        <v>84</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="G51" s="0"/>
       <c r="H51" s="0"/>
       <c r="I51" s="0"/>
@@ -14722,17 +14808,14 @@
       <c r="IV51" s="0"/>
       <c r="IW51" s="0"/>
     </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6"/>
-      <c r="B52" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D52" s="0"/>
-      <c r="E52" s="0"/>
-      <c r="F52" s="0"/>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="7"/>
+      <c r="B52" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="G52" s="0"/>
       <c r="H52" s="0"/>
       <c r="I52" s="0"/>
@@ -14986,18 +15069,15 @@
       <c r="IW52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="24.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>81</v>
+      <c r="A53" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D53" s="0"/>
-      <c r="E53" s="0"/>
-      <c r="F53" s="0"/>
+        <v>89</v>
+      </c>
       <c r="G53" s="0"/>
       <c r="H53" s="0"/>
       <c r="I53" s="0"/>
@@ -15251,16 +15331,13 @@
       <c r="IW53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="24.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4"/>
-      <c r="B54" s="11" t="s">
-        <v>83</v>
+      <c r="A54" s="5"/>
+      <c r="B54" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D54" s="0"/>
-      <c r="E54" s="0"/>
-      <c r="F54" s="0"/>
+        <v>91</v>
+      </c>
       <c r="G54" s="0"/>
       <c r="H54" s="0"/>
       <c r="I54" s="0"/>
@@ -15514,16 +15591,13 @@
       <c r="IW54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="24.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4"/>
-      <c r="B55" s="11" t="s">
-        <v>61</v>
+      <c r="A55" s="5"/>
+      <c r="B55" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D55" s="0"/>
-      <c r="E55" s="0"/>
-      <c r="F55" s="0"/>
+        <v>92</v>
+      </c>
       <c r="G55" s="0"/>
       <c r="H55" s="0"/>
       <c r="I55" s="0"/>
@@ -15777,16 +15851,13 @@
       <c r="IW55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="24.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4"/>
-      <c r="B56" s="11" t="s">
-        <v>86</v>
+      <c r="A56" s="5"/>
+      <c r="B56" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D56" s="0"/>
-      <c r="E56" s="0"/>
-      <c r="F56" s="0"/>
+        <v>94</v>
+      </c>
       <c r="G56" s="0"/>
       <c r="H56" s="0"/>
       <c r="I56" s="0"/>
@@ -16040,16 +16111,22 @@
       <c r="IW56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="24.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4"/>
-      <c r="B57" s="11" t="s">
-        <v>88</v>
+      <c r="A57" s="5"/>
+      <c r="B57" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D57" s="0"/>
-      <c r="E57" s="0"/>
-      <c r="F57" s="0"/>
+        <v>96</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="G57" s="0"/>
       <c r="H57" s="0"/>
       <c r="I57" s="0"/>
@@ -16303,16 +16380,22 @@
       <c r="IW57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="24.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4"/>
-      <c r="B58" s="11" t="s">
-        <v>56</v>
+      <c r="A58" s="5"/>
+      <c r="B58" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D58" s="0"/>
-      <c r="E58" s="0"/>
-      <c r="F58" s="0"/>
+        <v>99</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="G58" s="0"/>
       <c r="H58" s="0"/>
       <c r="I58" s="0"/>
@@ -16566,16 +16649,22 @@
       <c r="IW58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="24.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4"/>
-      <c r="B59" s="11" t="s">
-        <v>91</v>
+      <c r="A59" s="5"/>
+      <c r="B59" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D59" s="0"/>
-      <c r="E59" s="0"/>
-      <c r="F59" s="0"/>
+        <v>101</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="G59" s="0"/>
       <c r="H59" s="0"/>
       <c r="I59" s="0"/>
@@ -16829,16 +16918,22 @@
       <c r="IW59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="24.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4"/>
-      <c r="B60" s="11" t="s">
-        <v>93</v>
+      <c r="A60" s="5"/>
+      <c r="B60" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D60" s="0"/>
-      <c r="E60" s="0"/>
-      <c r="F60" s="0"/>
+        <v>29</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="G60" s="0"/>
       <c r="H60" s="0"/>
       <c r="I60" s="0"/>
@@ -17092,16 +17187,13 @@
       <c r="IW60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="24.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4"/>
-      <c r="B61" s="11" t="s">
-        <v>94</v>
+      <c r="A61" s="5"/>
+      <c r="B61" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D61" s="0"/>
-      <c r="E61" s="0"/>
-      <c r="F61" s="0"/>
+        <v>29</v>
+      </c>
       <c r="G61" s="0"/>
       <c r="H61" s="0"/>
       <c r="I61" s="0"/>
@@ -17355,16 +17447,13 @@
       <c r="IW61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="24.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4"/>
-      <c r="B62" s="11" t="s">
-        <v>95</v>
+      <c r="A62" s="5"/>
+      <c r="B62" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D62" s="0"/>
-      <c r="E62" s="0"/>
-      <c r="F62" s="0"/>
+        <v>96</v>
+      </c>
       <c r="G62" s="0"/>
       <c r="H62" s="0"/>
       <c r="I62" s="0"/>
@@ -17618,16 +17707,20 @@
       <c r="IW62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="24.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4"/>
-      <c r="B63" s="11" t="s">
-        <v>96</v>
+      <c r="A63" s="5"/>
+      <c r="B63" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D63" s="0"/>
-      <c r="E63" s="0"/>
-      <c r="F63" s="0"/>
+        <v>108</v>
+      </c>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="G63" s="0"/>
       <c r="H63" s="0"/>
       <c r="I63" s="0"/>
@@ -17881,16 +17974,22 @@
       <c r="IW63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="24.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4"/>
-      <c r="B64" s="11" t="s">
-        <v>98</v>
+      <c r="A64" s="5"/>
+      <c r="B64" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D64" s="0"/>
-      <c r="E64" s="0"/>
-      <c r="F64" s="0"/>
+        <v>29</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="G64" s="0"/>
       <c r="H64" s="0"/>
       <c r="I64" s="0"/>
@@ -18144,16 +18243,16 @@
       <c r="IW64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="24.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4"/>
-      <c r="B65" s="11" t="s">
-        <v>70</v>
+      <c r="A65" s="5"/>
+      <c r="B65" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D65" s="0"/>
-      <c r="E65" s="0"/>
-      <c r="F65" s="0"/>
+        <v>29</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="G65" s="0"/>
       <c r="H65" s="0"/>
       <c r="I65" s="0"/>
@@ -18407,16 +18506,16 @@
       <c r="IW65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4"/>
-      <c r="B66" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D66" s="0"/>
-      <c r="E66" s="0"/>
-      <c r="F66" s="0"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="G66" s="0"/>
       <c r="H66" s="0"/>
       <c r="I66" s="0"/>
@@ -18670,16 +18769,13 @@
       <c r="IW66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="24.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4"/>
-      <c r="B67" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D67" s="0"/>
-      <c r="E67" s="0"/>
-      <c r="F67" s="0"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="G67" s="0"/>
       <c r="H67" s="0"/>
       <c r="I67" s="0"/>
@@ -18933,16 +19029,13 @@
       <c r="IW67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="24.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4"/>
-      <c r="B68" s="11" t="s">
-        <v>102</v>
+      <c r="A68" s="5"/>
+      <c r="B68" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D68" s="0"/>
-      <c r="E68" s="0"/>
-      <c r="F68" s="0"/>
+        <v>115</v>
+      </c>
       <c r="G68" s="0"/>
       <c r="H68" s="0"/>
       <c r="I68" s="0"/>
@@ -19196,16 +19289,13 @@
       <c r="IW68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="24.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4"/>
-      <c r="B69" s="11" t="s">
-        <v>104</v>
+      <c r="A69" s="5"/>
+      <c r="B69" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D69" s="0"/>
-      <c r="E69" s="0"/>
-      <c r="F69" s="0"/>
+        <v>29</v>
+      </c>
       <c r="G69" s="0"/>
       <c r="H69" s="0"/>
       <c r="I69" s="0"/>
@@ -19459,18 +19549,24 @@
       <c r="IW69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>105</v>
+      <c r="A70" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D70" s="0"/>
-      <c r="E70" s="0"/>
-      <c r="F70" s="0"/>
+        <v>99</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="G70" s="0"/>
       <c r="H70" s="0"/>
       <c r="I70" s="0"/>
@@ -19724,16 +19820,13 @@
       <c r="IW70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4"/>
-      <c r="B71" s="11" t="s">
-        <v>106</v>
+      <c r="A71" s="5"/>
+      <c r="B71" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D71" s="0"/>
-      <c r="E71" s="0"/>
-      <c r="F71" s="0"/>
+        <v>99</v>
+      </c>
       <c r="G71" s="0"/>
       <c r="H71" s="0"/>
       <c r="I71" s="0"/>
@@ -19987,16 +20080,22 @@
       <c r="IW71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4"/>
-      <c r="B72" s="11" t="s">
-        <v>107</v>
+      <c r="A72" s="5"/>
+      <c r="B72" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D72" s="0"/>
-      <c r="E72" s="0"/>
-      <c r="F72" s="0"/>
+        <v>99</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="G72" s="0"/>
       <c r="H72" s="0"/>
       <c r="I72" s="0"/>
@@ -20250,16 +20349,22 @@
       <c r="IW72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4"/>
-      <c r="B73" s="11" t="s">
-        <v>108</v>
+      <c r="A73" s="5"/>
+      <c r="B73" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D73" s="0"/>
-      <c r="E73" s="0"/>
-      <c r="F73" s="0"/>
+        <v>29</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="G73" s="0"/>
       <c r="H73" s="0"/>
       <c r="I73" s="0"/>
@@ -20513,16 +20618,22 @@
       <c r="IW73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4"/>
-      <c r="B74" s="11" t="s">
-        <v>109</v>
+      <c r="A74" s="5"/>
+      <c r="B74" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D74" s="0"/>
-      <c r="E74" s="0"/>
-      <c r="F74" s="0"/>
+        <v>99</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="G74" s="0"/>
       <c r="H74" s="0"/>
       <c r="I74" s="0"/>
@@ -20776,16 +20887,22 @@
       <c r="IW74" s="0"/>
     </row>
     <row r="75" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4"/>
-      <c r="B75" s="11" t="s">
-        <v>110</v>
+      <c r="A75" s="5"/>
+      <c r="B75" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D75" s="0"/>
-      <c r="E75" s="0"/>
-      <c r="F75" s="0"/>
+        <v>29</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="G75" s="0"/>
       <c r="H75" s="0"/>
       <c r="I75" s="0"/>
@@ -21039,16 +21156,22 @@
       <c r="IW75" s="0"/>
     </row>
     <row r="76" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4"/>
-      <c r="B76" s="11" t="s">
-        <v>111</v>
+      <c r="A76" s="5"/>
+      <c r="B76" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D76" s="0"/>
-      <c r="E76" s="0"/>
-      <c r="F76" s="0"/>
+        <v>99</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="G76" s="0"/>
       <c r="H76" s="0"/>
       <c r="I76" s="0"/>
@@ -21301,19 +21424,25 @@
       <c r="IV76" s="0"/>
       <c r="IW76" s="0"/>
     </row>
-    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>113</v>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>125</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D77" s="0"/>
-      <c r="E77" s="0"/>
-      <c r="F77" s="0"/>
+        <v>126</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="G77" s="0"/>
       <c r="H77" s="0"/>
       <c r="I77" s="0"/>
@@ -21566,17 +21695,23 @@
       <c r="IV77" s="0"/>
       <c r="IW77" s="0"/>
     </row>
-    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="12"/>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="14"/>
       <c r="B78" s="3" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D78" s="0"/>
-      <c r="E78" s="0"/>
-      <c r="F78" s="0"/>
+        <v>128</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="G78" s="0"/>
       <c r="H78" s="0"/>
       <c r="I78" s="0"/>
@@ -21829,17 +21964,23 @@
       <c r="IV78" s="0"/>
       <c r="IW78" s="0"/>
     </row>
-    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="12"/>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="14"/>
       <c r="B79" s="3" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D79" s="0"/>
-      <c r="E79" s="0"/>
-      <c r="F79" s="0"/>
+        <v>128</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="G79" s="0"/>
       <c r="H79" s="0"/>
       <c r="I79" s="0"/>
@@ -22092,17 +22233,14 @@
       <c r="IV79" s="0"/>
       <c r="IW79" s="0"/>
     </row>
-    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="12"/>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="14"/>
       <c r="B80" s="3" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D80" s="0"/>
-      <c r="E80" s="0"/>
-      <c r="F80" s="0"/>
+        <v>128</v>
+      </c>
       <c r="G80" s="0"/>
       <c r="H80" s="0"/>
       <c r="I80" s="0"/>
@@ -22355,17 +22493,14 @@
       <c r="IV80" s="0"/>
       <c r="IW80" s="0"/>
     </row>
-    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="12"/>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="14"/>
       <c r="B81" s="3" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D81" s="0"/>
-      <c r="E81" s="0"/>
-      <c r="F81" s="0"/>
+        <v>128</v>
+      </c>
       <c r="G81" s="0"/>
       <c r="H81" s="0"/>
       <c r="I81" s="0"/>
@@ -22619,48 +22754,28 @@
       <c r="IW81" s="0"/>
     </row>
     <row r="82" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C82" s="16"/>
+      <c r="A82" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C82" s="18"/>
     </row>
     <row r="83" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="14"/>
-      <c r="B83" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C83" s="15"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C83" s="17"/>
     </row>
     <row r="84" customFormat="false" ht="38.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="14"/>
-      <c r="B84" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C84" s="15"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C84" s="17"/>
     </row>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A1:B1"/>
@@ -22696,13 +22811,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="52.5102040816327"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="40.9030612244898"/>
-    <col collapsed="false" hidden="false" max="257" min="6" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.8010204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="51.969387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="40.3622448979592"/>
+    <col collapsed="false" hidden="false" max="257" min="6" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22714,141 +22829,141 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="3" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="F2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="3" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>128</v>
+        <v>139</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>140</v>
       </c>
       <c r="F3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="3" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="17"/>
+        <v>142</v>
+      </c>
+      <c r="E4" s="19"/>
       <c r="F4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="3" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" s="17"/>
+        <v>144</v>
+      </c>
+      <c r="E5" s="19"/>
       <c r="F5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="3" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" s="17"/>
+        <v>145</v>
+      </c>
+      <c r="E6" s="19"/>
       <c r="F6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="3" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E7" s="17"/>
+        <v>146</v>
+      </c>
+      <c r="E7" s="19"/>
       <c r="F7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="3" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" s="17"/>
+        <v>147</v>
+      </c>
+      <c r="E8" s="19"/>
       <c r="F8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="3" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E9" s="17"/>
+        <v>148</v>
+      </c>
+      <c r="E9" s="19"/>
       <c r="F9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="3" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="17"/>
+        <v>149</v>
+      </c>
+      <c r="E10" s="19"/>
       <c r="F10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="3" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E11" s="17"/>
+        <v>150</v>
+      </c>
+      <c r="E11" s="19"/>
       <c r="F11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="1" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>900</v>
@@ -22856,7 +22971,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="1" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F13" s="1" t="n">
         <v>400</v>
@@ -22864,7 +22979,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="1" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>1000</v>
@@ -22872,7 +22987,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E15" s="1" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>240</v>
@@ -22899,218 +23014,218 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="52.5051020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.6173469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.9540816326531"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>144</v>
+    <row r="1" s="22" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>148</v>
+      <c r="A2" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>151</v>
+      <c r="A3" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>154</v>
+      <c r="A4" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="D5" s="23" t="s">
+      <c r="A5" s="23" t="s">
         <v>157</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>160</v>
+      <c r="A6" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>163</v>
+      <c r="A7" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="23"/>
+      <c r="A8" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="23"/>
+      <c r="A9" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="25"/>
     </row>
     <row r="10" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>166</v>
+      <c r="A10" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>169</v>
+      <c r="A11" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>172</v>
+      <c r="A12" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>175</v>
+      <c r="A13" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>178</v>
+      <c r="A14" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="23"/>
+      <c r="A15" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="25"/>
     </row>
     <row r="16" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="23"/>
+      <c r="A16" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="25"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -23136,222 +23251,222 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3775510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.6479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>125</v>
+      <c r="A1" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="s">
-        <v>179</v>
+      <c r="A2" s="20" t="s">
+        <v>191</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>181</v>
+        <v>192</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="18" t="s">
-        <v>179</v>
+      <c r="A3" s="20" t="s">
+        <v>191</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="s">
-        <v>179</v>
+      <c r="A4" s="20" t="s">
+        <v>191</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>185</v>
+        <v>196</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="s">
-        <v>179</v>
+      <c r="A5" s="20" t="s">
+        <v>191</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>187</v>
+        <v>198</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18" t="s">
-        <v>179</v>
+      <c r="A6" s="20" t="s">
+        <v>191</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>189</v>
+        <v>200</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="s">
-        <v>179</v>
+      <c r="A7" s="20" t="s">
+        <v>191</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>191</v>
+        <v>202</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="s">
-        <v>179</v>
+      <c r="A8" s="20" t="s">
+        <v>191</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>193</v>
+        <v>204</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="s">
-        <v>179</v>
+      <c r="A9" s="20" t="s">
+        <v>191</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18" t="s">
-        <v>179</v>
+      <c r="A10" s="20" t="s">
+        <v>191</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="s">
-        <v>179</v>
+      <c r="A11" s="20" t="s">
+        <v>191</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="s">
-        <v>179</v>
+      <c r="A12" s="20" t="s">
+        <v>191</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18" t="s">
-        <v>179</v>
+      <c r="A13" s="20" t="s">
+        <v>191</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="18" t="s">
-        <v>179</v>
+      <c r="A14" s="20" t="s">
+        <v>191</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18" t="s">
-        <v>179</v>
+      <c r="A15" s="20" t="s">
+        <v>191</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18" t="s">
-        <v>179</v>
+      <c r="A16" s="20" t="s">
+        <v>191</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="18" t="s">
-        <v>179</v>
+      <c r="A17" s="20" t="s">
+        <v>191</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18" t="s">
-        <v>179</v>
+      <c r="A18" s="20" t="s">
+        <v>191</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18" t="s">
-        <v>179</v>
+      <c r="A19" s="20" t="s">
+        <v>191</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18" t="s">
-        <v>179</v>
+      <c r="A20" s="20" t="s">
+        <v>191</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="18" t="s">
-        <v>179</v>
+      <c r="A21" s="20" t="s">
+        <v>191</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="18" t="s">
-        <v>179</v>
+      <c r="A22" s="20" t="s">
+        <v>191</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="18" t="s">
-        <v>179</v>
+      <c r="A23" s="20" t="s">
+        <v>191</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
